--- a/DataDriven/data.xlsx
+++ b/DataDriven/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pratheep\eclipse-workspace2\Git\SeleniumFramework\DataDriven\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pratheep\eclipse-workspace2\RestAssured_Prjct\DataDriven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BC7973-ECE8-4AB5-B672-849A6A54F998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA90514-B4AD-4D70-B402-CB49C06FB3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="1245" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
-  <si>
-    <t>S.No</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>UserName</t>
   </si>
@@ -36,32 +33,88 @@
     <t>Password</t>
   </si>
   <si>
-    <t>John Doe</t>
-  </si>
-  <si>
-    <t>ThisIsNotAPassword</t>
-  </si>
-  <si>
-    <t>Vinay</t>
-  </si>
-  <si>
-    <t>Chinu</t>
-  </si>
-  <si>
-    <t>Vijay</t>
-  </si>
-  <si>
-    <t>Actor</t>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>testuser1</t>
+  </si>
+  <si>
+    <t>testuser2</t>
+  </si>
+  <si>
+    <t>testuser3</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Candy</t>
+  </si>
+  <si>
+    <t>Kom</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>a@gmail.com</t>
+  </si>
+  <si>
+    <t>ab@gmail.com</t>
+  </si>
+  <si>
+    <t>ac@gmail.com</t>
+  </si>
+  <si>
+    <t>test@1</t>
+  </si>
+  <si>
+    <t>test@2</t>
+  </si>
+  <si>
+    <t>test@3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -84,19 +137,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -375,74 +433,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>1010</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1">
+        <v>12345678</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1020</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1">
+        <v>12345679</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>1030</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1">
+        <v>12345680</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{95D48366-DB33-4CDE-91EE-DCF1A67B8CAE}"/>
+    <hyperlink ref="E3:E4" r:id="rId2" display="a@gmail.com" xr:uid="{471F74BC-2DFB-4D0D-8968-EDA86B1CE455}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{A1B4E4D3-E814-4EB5-9CAE-D77D61A4B2AB}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{8ADA62DA-0247-4C91-BCE3-D6050767B57C}"/>
+    <hyperlink ref="F2" r:id="rId5" xr:uid="{BD4C124C-A001-4ECF-A4EA-820DA23D02F8}"/>
+    <hyperlink ref="F3:F4" r:id="rId6" display="test@1" xr:uid="{75FF4557-277F-47FF-BF37-114B1EB077BE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>